--- a/codebusters_data_analysis/Queries.xlsx
+++ b/codebusters_data_analysis/Queries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\codebusters_data_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MyProjects\PythonDataScience\codebusters_data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0A8230-7ACF-4C27-9741-EA550BF74040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBA3B92-D95B-4182-BF4C-9DBC46A4006D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,44 +399,44 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="96.7109375" customWidth="1"/>
+    <col min="1" max="1" width="96.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -444,7 +444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -452,17 +452,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
